--- a/기획서/게임 플레이/기획서_몬스터 스테이터스 1.1.1ver.xlsx
+++ b/기획서/게임 플레이/기획서_몬스터 스테이터스 1.1.1ver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="미니언" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -482,25 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,52 +795,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="O1" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+      <c r="O1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="29"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="32" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="O2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="36">
         <v>5</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -876,12 +876,12 @@
       <c r="K3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1372,53 +1372,53 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="A14" s="29">
         <v>10</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="30">
         <f t="shared" si="1"/>
         <v>645</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="31">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="32">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="30">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="31">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="32">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="31">
         <f t="shared" si="7"/>
         <v>380</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="31">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="30"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -1644,7 +1644,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M19" s="35"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1873,6 +1873,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="P2:R2"/>
@@ -1881,7 +1882,6 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="L14:M14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1900,42 +1900,42 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="L1" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="L1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="34">
         <v>5</v>
       </c>
-      <c r="N2" s="29"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2075,11 +2075,11 @@
         <f t="shared" ref="H6:H13" si="4">(H5+$N$5)</f>
         <v>46</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -2114,10 +2114,10 @@
       <c r="L7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="34">
         <v>10</v>
       </c>
-      <c r="N7" s="29"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -2324,39 +2324,39 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="A14" s="29">
         <v>10</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="29">
         <f>(B13+$M$7)</f>
         <v>155</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="31">
         <v>3800</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="31">
         <f>(D13+$M$8)</f>
         <v>207</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="32">
         <f>(E13+$N$8)</f>
         <v>62</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="31">
         <v>3600</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="31">
         <f>(G13+$M$9)</f>
         <v>236</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="32">
         <f>(H13+$N$9)</f>
         <v>73</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -2512,7 +2512,7 @@
         <f t="shared" si="9"/>
         <v>103</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -2691,61 +2691,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123000F-56F2-4F67-BCC7-27D371ADB467}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-      <c r="R1" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="R1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="35"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="26" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="26" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
       <c r="R2" s="25"/>
       <c r="S2" s="17" t="s">
         <v>32</v>
@@ -2809,11 +2809,11 @@
       <c r="R3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="31"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="37"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
@@ -2999,12 +2999,12 @@
         <v>1</v>
       </c>
       <c r="Q6" s="20"/>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="29"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="35"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
@@ -3062,11 +3062,11 @@
       <c r="R7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
@@ -3419,66 +3419,66 @@
         <v>138</v>
       </c>
       <c r="P13" s="21"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="39">
+      <c r="A14" s="30">
         <v>10</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="30">
         <v>153</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="31">
         <v>1300</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="31">
         <v>42</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="31">
         <v>10</v>
       </c>
-      <c r="F14" s="41">
-        <v>1</v>
-      </c>
-      <c r="G14" s="39">
+      <c r="F14" s="32">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
         <v>400</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="31">
         <f>(H13+$S$8)</f>
         <v>6120</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="31">
         <f>(I13+$T$8)</f>
         <v>187</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="31">
         <f>(J13+$U$8)</f>
         <v>44</v>
       </c>
-      <c r="K14" s="41">
-        <v>1</v>
-      </c>
-      <c r="L14" s="39">
+      <c r="K14" s="32">
+        <v>1</v>
+      </c>
+      <c r="L14" s="30">
         <v>900</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="31">
         <f>(M13+$S$9)</f>
         <v>8220</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="31">
         <f>(N13+$T$9)</f>
         <v>328</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="31">
         <f>(O13+$U$9)</f>
         <v>138</v>
       </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="26" t="s">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="30"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
@@ -4030,15 +4030,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="S7:U7"/>
     <mergeCell ref="R6:U6"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
